--- a/Tesis/Resultados/Escalon/AC/ACOSTADO_Derecho_layer_1.xlsx
+++ b/Tesis/Resultados/Escalon/AC/ACOSTADO_Derecho_layer_1.xlsx
@@ -31,772 +31,772 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[-0.22682233154773712]</t>
-  </si>
-  <si>
-    <t>[0.02098439447581768]</t>
-  </si>
-  <si>
-    <t>[-0.21922293305397034]</t>
-  </si>
-  <si>
-    <t>[0.04355746507644653]</t>
-  </si>
-  <si>
-    <t>[-0.46753811836242676]</t>
-  </si>
-  <si>
-    <t>[-0.21270442008972168]</t>
-  </si>
-  <si>
-    <t>[-0.29351428151130676]</t>
-  </si>
-  <si>
-    <t>[0.17674557864665985]</t>
-  </si>
-  <si>
-    <t>[0.15760955214500427]</t>
-  </si>
-  <si>
-    <t>[0.3851846158504486]</t>
-  </si>
-  <si>
-    <t>[-0.272093266248703]</t>
-  </si>
-  <si>
-    <t>[0.005130902864038944]</t>
-  </si>
-  <si>
-    <t>[-0.1386747807264328]</t>
-  </si>
-  <si>
-    <t>[0.42954200506210327]</t>
-  </si>
-  <si>
-    <t>[0.5441944599151611]</t>
-  </si>
-  <si>
-    <t>[-0.2172696590423584]</t>
-  </si>
-  <si>
-    <t>[-0.24581758677959442]</t>
-  </si>
-  <si>
-    <t>[-0.24368374049663544]</t>
-  </si>
-  <si>
-    <t>[-0.01749148592352867]</t>
-  </si>
-  <si>
-    <t>[-0.17182967066764832]</t>
-  </si>
-  <si>
-    <t>[-0.29365769028663635]</t>
-  </si>
-  <si>
-    <t>[-0.24396660923957825]</t>
-  </si>
-  <si>
-    <t>[-0.2988858222961426]</t>
-  </si>
-  <si>
-    <t>[0.20496968924999237]</t>
-  </si>
-  <si>
-    <t>[-0.36330902576446533]</t>
-  </si>
-  <si>
-    <t>[0.23158881068229675]</t>
-  </si>
-  <si>
-    <t>[-0.02657235972583294]</t>
-  </si>
-  <si>
-    <t>[-0.04831625148653984]</t>
-  </si>
-  <si>
-    <t>[-0.42775821685791016]</t>
-  </si>
-  <si>
-    <t>[-0.1296992152929306]</t>
-  </si>
-  <si>
-    <t>[-0.12505613267421722]</t>
-  </si>
-  <si>
-    <t>[0.22464948892593384]</t>
-  </si>
-  <si>
-    <t>[0.29916808009147644]</t>
-  </si>
-  <si>
-    <t>[-0.12741753458976746]</t>
-  </si>
-  <si>
-    <t>[0.36317893862724304]</t>
-  </si>
-  <si>
-    <t>[0.307494193315506]</t>
-  </si>
-  <si>
-    <t>[0.15648525953292847]</t>
-  </si>
-  <si>
-    <t>[0.2619193196296692]</t>
-  </si>
-  <si>
-    <t>[-0.00604334007948637]</t>
-  </si>
-  <si>
-    <t>[-0.28268909454345703]</t>
-  </si>
-  <si>
-    <t>[-0.1418142020702362]</t>
-  </si>
-  <si>
-    <t>[0.15802539885044098]</t>
-  </si>
-  <si>
-    <t>[0.05013857036828995]</t>
-  </si>
-  <si>
-    <t>[-0.2610242962837219]</t>
-  </si>
-  <si>
-    <t>[-0.3695807456970215]</t>
-  </si>
-  <si>
-    <t>[0.5153164267539978]</t>
-  </si>
-  <si>
-    <t>[0.49581798911094666]</t>
-  </si>
-  <si>
-    <t>[0.11700279265642166]</t>
-  </si>
-  <si>
-    <t>[0.20599165558815002]</t>
-  </si>
-  <si>
-    <t>[0.20577950775623322]</t>
-  </si>
-  <si>
-    <t>[0.4065887928009033]</t>
-  </si>
-  <si>
-    <t>[0.10813690721988678]</t>
-  </si>
-  <si>
-    <t>[-0.39278218150138855]</t>
-  </si>
-  <si>
-    <t>[0.30768972635269165]</t>
-  </si>
-  <si>
-    <t>[-0.47000205516815186]</t>
-  </si>
-  <si>
-    <t>[0.02295958809554577]</t>
-  </si>
-  <si>
-    <t>[-0.6017826795578003]</t>
-  </si>
-  <si>
-    <t>[0.19230975210666656]</t>
-  </si>
-  <si>
-    <t>[-0.3210449516773224]</t>
-  </si>
-  <si>
-    <t>[-0.28688913583755493]</t>
-  </si>
-  <si>
-    <t>[-0.45803412795066833]</t>
-  </si>
-  <si>
-    <t>[0.10441378504037857]</t>
-  </si>
-  <si>
-    <t>[-0.41195258498191833]</t>
-  </si>
-  <si>
-    <t>[0.35036832094192505]</t>
-  </si>
-  <si>
-    <t>[0.02156860940158367]</t>
-  </si>
-  <si>
-    <t>[-0.12476738542318344]</t>
-  </si>
-  <si>
-    <t>[-0.22603127360343933]</t>
-  </si>
-  <si>
-    <t>[-0.08931083232164383]</t>
-  </si>
-  <si>
-    <t>[-0.45749950408935547]</t>
-  </si>
-  <si>
-    <t>[-0.32670721411705017]</t>
-  </si>
-  <si>
-    <t>[0.293026328086853]</t>
-  </si>
-  <si>
-    <t>[0.28919896483421326]</t>
-  </si>
-  <si>
-    <t>[-0.09212641417980194]</t>
-  </si>
-  <si>
-    <t>[0.13467244803905487]</t>
-  </si>
-  <si>
-    <t>[0.24714817106723785]</t>
-  </si>
-  <si>
-    <t>[0.29849618673324585]</t>
-  </si>
-  <si>
-    <t>[-0.3059895932674408]</t>
-  </si>
-  <si>
-    <t>[-0.16012172400951385]</t>
-  </si>
-  <si>
-    <t>[0.29435330629348755]</t>
-  </si>
-  <si>
-    <t>[0.1376526951789856]</t>
-  </si>
-  <si>
-    <t>[-0.04058545455336571]</t>
-  </si>
-  <si>
-    <t>[-0.313869446516037]</t>
-  </si>
-  <si>
-    <t>[0.02278536558151245]</t>
-  </si>
-  <si>
-    <t>[-0.10204952955245972]</t>
-  </si>
-  <si>
-    <t>[-0.5147264003753662]</t>
-  </si>
-  <si>
-    <t>[0.2749018669128418]</t>
-  </si>
-  <si>
-    <t>[0.229742631316185]</t>
-  </si>
-  <si>
-    <t>[-0.21149057149887085]</t>
-  </si>
-  <si>
-    <t>[-0.1142381802201271]</t>
-  </si>
-  <si>
-    <t>[-0.15954186022281647]</t>
-  </si>
-  <si>
-    <t>[0.07217228412628174]</t>
-  </si>
-  <si>
-    <t>[0.002996474038809538]</t>
-  </si>
-  <si>
-    <t>[-0.08545149117708206]</t>
-  </si>
-  <si>
-    <t>[-0.23198534548282623]</t>
-  </si>
-  <si>
-    <t>[-0.46702510118484497]</t>
-  </si>
-  <si>
-    <t>[-0.13319411873817444]</t>
-  </si>
-  <si>
-    <t>[-0.5517784357070923]</t>
-  </si>
-  <si>
-    <t>[-0.1344679296016693]</t>
-  </si>
-  <si>
-    <t>[0.019069653004407883]</t>
-  </si>
-  <si>
-    <t>[0.2457433044910431]</t>
-  </si>
-  <si>
-    <t>[-0.21023787558078766]</t>
-  </si>
-  <si>
-    <t>[0.02009357511997223]</t>
-  </si>
-  <si>
-    <t>[0.1981811821460724]</t>
-  </si>
-  <si>
-    <t>[-0.47812125086784363]</t>
-  </si>
-  <si>
-    <t>[-0.1010688841342926]</t>
-  </si>
-  <si>
-    <t>[-0.08783085644245148]</t>
-  </si>
-  <si>
-    <t>[0.03750365227460861]</t>
-  </si>
-  <si>
-    <t>[0.27607715129852295]</t>
-  </si>
-  <si>
-    <t>[-0.13164754211902618]</t>
-  </si>
-  <si>
-    <t>[-0.45163556933403015]</t>
-  </si>
-  <si>
-    <t>[-0.3799462914466858]</t>
-  </si>
-  <si>
-    <t>[-0.12661860883235931]</t>
-  </si>
-  <si>
-    <t>[-0.2677456736564636]</t>
-  </si>
-  <si>
-    <t>[-0.15517966449260712]</t>
-  </si>
-  <si>
-    <t>[0.28641995787620544]</t>
-  </si>
-  <si>
-    <t>[0.4003412425518036]</t>
-  </si>
-  <si>
-    <t>[0.24364258348941803]</t>
-  </si>
-  <si>
-    <t>[-0.1968638002872467]</t>
-  </si>
-  <si>
-    <t>[0.00022211864416021854]</t>
-  </si>
-  <si>
-    <t>[0.334351509809494]</t>
-  </si>
-  <si>
-    <t>[0.283867210149765]</t>
-  </si>
-  <si>
-    <t>[0.3304500877857208]</t>
-  </si>
-  <si>
-    <t>[0.3287924826145172]</t>
-  </si>
-  <si>
-    <t>[-0.06297791004180908]</t>
-  </si>
-  <si>
-    <t>[-0.06101781502366066]</t>
-  </si>
-  <si>
-    <t>[0.21132208406925201]</t>
-  </si>
-  <si>
-    <t>[0.32356536388397217]</t>
-  </si>
-  <si>
-    <t>[-0.45835137367248535]</t>
-  </si>
-  <si>
-    <t>[0.21798329055309296]</t>
-  </si>
-  <si>
-    <t>[0.25881630182266235]</t>
-  </si>
-  <si>
-    <t>[0.5329527258872986]</t>
-  </si>
-  <si>
-    <t>[-0.09285633265972137]</t>
-  </si>
-  <si>
-    <t>[-0.3071879744529724]</t>
-  </si>
-  <si>
-    <t>[0.02505393512547016]</t>
-  </si>
-  <si>
-    <t>[-0.4995869994163513]</t>
-  </si>
-  <si>
-    <t>[0.35738304257392883]</t>
-  </si>
-  <si>
-    <t>[0.2684241831302643]</t>
-  </si>
-  <si>
-    <t>[0.10755681246519089]</t>
-  </si>
-  <si>
-    <t>[0.21161603927612305]</t>
-  </si>
-  <si>
-    <t>[-0.05807827040553093]</t>
-  </si>
-  <si>
-    <t>[-0.29319530725479126]</t>
-  </si>
-  <si>
-    <t>[0.342831015586853]</t>
-  </si>
-  <si>
-    <t>[-0.05769849196076393]</t>
-  </si>
-  <si>
-    <t>[0.41163039207458496]</t>
-  </si>
-  <si>
-    <t>[0.18573670089244843]</t>
-  </si>
-  <si>
-    <t>[0.10933510959148407]</t>
-  </si>
-  <si>
-    <t>[0.35809263586997986]</t>
-  </si>
-  <si>
-    <t>[-0.3015449345111847]</t>
-  </si>
-  <si>
-    <t>[-0.3209337294101715]</t>
-  </si>
-  <si>
-    <t>[0.4352136254310608]</t>
-  </si>
-  <si>
-    <t>[-0.09752077609300613]</t>
-  </si>
-  <si>
-    <t>[-0.36357131600379944]</t>
-  </si>
-  <si>
-    <t>[0.015999531373381615]</t>
-  </si>
-  <si>
-    <t>[0.05396634340286255]</t>
-  </si>
-  <si>
-    <t>[-0.16527783870697021]</t>
-  </si>
-  <si>
-    <t>[0.32799988985061646]</t>
-  </si>
-  <si>
-    <t>[-0.2748764157295227]</t>
-  </si>
-  <si>
-    <t>[0.5010383725166321]</t>
-  </si>
-  <si>
-    <t>[-0.5858507752418518]</t>
-  </si>
-  <si>
-    <t>[0.3061861991882324]</t>
-  </si>
-  <si>
-    <t>[0.2575755715370178]</t>
-  </si>
-  <si>
-    <t>[-0.07911277562379837]</t>
-  </si>
-  <si>
-    <t>[0.37474721670150757]</t>
-  </si>
-  <si>
-    <t>[-0.3210063874721527]</t>
-  </si>
-  <si>
-    <t>[-0.3204558193683624]</t>
-  </si>
-  <si>
-    <t>[0.07640525698661804]</t>
-  </si>
-  <si>
-    <t>[-0.3516286015510559]</t>
-  </si>
-  <si>
-    <t>[0.40611621737480164]</t>
-  </si>
-  <si>
-    <t>[0.19714680314064026]</t>
-  </si>
-  <si>
-    <t>[-0.22630445659160614]</t>
-  </si>
-  <si>
-    <t>[-0.25569725036621094]</t>
-  </si>
-  <si>
-    <t>[-0.0667073205113411]</t>
-  </si>
-  <si>
-    <t>[-0.08502623438835144]</t>
-  </si>
-  <si>
-    <t>[-0.07901781797409058]</t>
-  </si>
-  <si>
-    <t>[0.3761448860168457]</t>
-  </si>
-  <si>
-    <t>[0.40364888310432434]</t>
-  </si>
-  <si>
-    <t>[-0.39318349957466125]</t>
-  </si>
-  <si>
-    <t>[0.13911841809749603]</t>
-  </si>
-  <si>
-    <t>[0.2557101547718048]</t>
-  </si>
-  <si>
-    <t>[-0.22272704541683197]</t>
-  </si>
-  <si>
-    <t>[-0.15899309515953064]</t>
-  </si>
-  <si>
-    <t>[0.01403067447245121]</t>
-  </si>
-  <si>
-    <t>[-0.31202420592308044]</t>
-  </si>
-  <si>
-    <t>[-0.25425612926483154]</t>
-  </si>
-  <si>
-    <t>[0.010583998635411263]</t>
-  </si>
-  <si>
-    <t>[0.2239147424697876]</t>
-  </si>
-  <si>
-    <t>[-0.6178731322288513]</t>
-  </si>
-  <si>
-    <t>[-0.25873836874961853]</t>
-  </si>
-  <si>
-    <t>[-0.5332235097885132]</t>
-  </si>
-  <si>
-    <t>[0.31884923577308655]</t>
-  </si>
-  <si>
-    <t>[-0.3687248229980469]</t>
-  </si>
-  <si>
-    <t>[0.10354278981685638]</t>
-  </si>
-  <si>
-    <t>[0.14717651903629303]</t>
-  </si>
-  <si>
-    <t>[-0.36608821153640747]</t>
-  </si>
-  <si>
-    <t>[-0.3466819226741791]</t>
-  </si>
-  <si>
-    <t>[-0.34516453742980957]</t>
-  </si>
-  <si>
-    <t>[0.05269718915224075]</t>
-  </si>
-  <si>
-    <t>[-0.10150831192731857]</t>
-  </si>
-  <si>
-    <t>[0.3627845048904419]</t>
-  </si>
-  <si>
-    <t>[-0.33864620327949524]</t>
-  </si>
-  <si>
-    <t>[-0.43195977807044983]</t>
-  </si>
-  <si>
-    <t>[-0.06389380246400833]</t>
-  </si>
-  <si>
-    <t>[0.16647174954414368]</t>
-  </si>
-  <si>
-    <t>[-0.050969403237104416]</t>
-  </si>
-  <si>
-    <t>[0.4337194859981537]</t>
-  </si>
-  <si>
-    <t>[-0.33296066522598267]</t>
-  </si>
-  <si>
-    <t>[-0.3959648311138153]</t>
-  </si>
-  <si>
-    <t>[0.10655594617128372]</t>
-  </si>
-  <si>
-    <t>[0.16023769974708557]</t>
-  </si>
-  <si>
-    <t>[-0.319387286901474]</t>
-  </si>
-  <si>
-    <t>[-0.1636490821838379]</t>
-  </si>
-  <si>
-    <t>[-0.3242363929748535]</t>
-  </si>
-  <si>
-    <t>[0.25049054622650146]</t>
-  </si>
-  <si>
-    <t>[-0.19262269139289856]</t>
-  </si>
-  <si>
-    <t>[0.4041561186313629]</t>
-  </si>
-  <si>
-    <t>[-0.19448518753051758]</t>
-  </si>
-  <si>
-    <t>[0.2659614682197571]</t>
-  </si>
-  <si>
-    <t>[-0.5085865259170532]</t>
-  </si>
-  <si>
-    <t>[0.5342490077018738]</t>
-  </si>
-  <si>
-    <t>[0.2582923173904419]</t>
-  </si>
-  <si>
-    <t>[0.15785473585128784]</t>
-  </si>
-  <si>
-    <t>[-0.42187145352363586]</t>
-  </si>
-  <si>
-    <t>[0.15387144684791565]</t>
-  </si>
-  <si>
-    <t>[-0.013849644921720028]</t>
-  </si>
-  <si>
-    <t>[-0.20235563814640045]</t>
-  </si>
-  <si>
-    <t>[-0.30663061141967773]</t>
-  </si>
-  <si>
-    <t>[0.09752622991800308]</t>
-  </si>
-  <si>
-    <t>[0.21502843499183655]</t>
-  </si>
-  <si>
-    <t>[0.2812882959842682]</t>
-  </si>
-  <si>
-    <t>[0.2689259946346283]</t>
-  </si>
-  <si>
-    <t>[0.06210062652826309]</t>
-  </si>
-  <si>
-    <t>[0.11824659258127213]</t>
-  </si>
-  <si>
-    <t>[-0.23143337666988373]</t>
-  </si>
-  <si>
-    <t>[-0.379773885011673]</t>
-  </si>
-  <si>
-    <t>[0.24851500988006592]</t>
-  </si>
-  <si>
-    <t>[0.09949588030576706]</t>
-  </si>
-  <si>
-    <t>[0.31573572754859924]</t>
-  </si>
-  <si>
-    <t>[-0.31098130345344543]</t>
-  </si>
-  <si>
-    <t>[-0.28006449341773987]</t>
-  </si>
-  <si>
-    <t>[-0.3529700040817261]</t>
-  </si>
-  <si>
-    <t>[0.4933012127876282]</t>
-  </si>
-  <si>
-    <t>[-0.43894118070602417]</t>
-  </si>
-  <si>
-    <t>[0.11055131256580353]</t>
-  </si>
-  <si>
-    <t>[0.3400747776031494]</t>
-  </si>
-  <si>
-    <t>[0.287376344203949]</t>
-  </si>
-  <si>
-    <t>[0.07139616459608078]</t>
-  </si>
-  <si>
-    <t>[0.1684889942407608]</t>
-  </si>
-  <si>
-    <t>[0.1665503978729248]</t>
-  </si>
-  <si>
-    <t>[0.06649744510650635]</t>
-  </si>
-  <si>
-    <t>[-0.3863665461540222]</t>
-  </si>
-  <si>
-    <t>[-0.021412286907434464]</t>
-  </si>
-  <si>
-    <t>[-0.15710070729255676]</t>
-  </si>
-  <si>
-    <t>[0.2743137776851654]</t>
-  </si>
-  <si>
-    <t>[-0.1777764856815338]</t>
-  </si>
-  <si>
-    <t>[0.5945554375648499]</t>
-  </si>
-  <si>
-    <t>[-0.4216211140155792]</t>
+    <t>[-0.2268979251384735]</t>
+  </si>
+  <si>
+    <t>[0.020934604108333588]</t>
+  </si>
+  <si>
+    <t>[-0.2192840278148651]</t>
+  </si>
+  <si>
+    <t>[0.04356273263692856]</t>
+  </si>
+  <si>
+    <t>[-0.4675268232822418]</t>
+  </si>
+  <si>
+    <t>[-0.2127014845609665]</t>
+  </si>
+  <si>
+    <t>[-0.2935110628604889]</t>
+  </si>
+  <si>
+    <t>[0.17673777043819427]</t>
+  </si>
+  <si>
+    <t>[0.1576068252325058]</t>
+  </si>
+  <si>
+    <t>[0.3850932717323303]</t>
+  </si>
+  <si>
+    <t>[-0.2720901370048523]</t>
+  </si>
+  <si>
+    <t>[0.005128112155944109]</t>
+  </si>
+  <si>
+    <t>[-0.13867680728435516]</t>
+  </si>
+  <si>
+    <t>[0.42944133281707764]</t>
+  </si>
+  <si>
+    <t>[0.544195830821991]</t>
+  </si>
+  <si>
+    <t>[-0.21726809442043304]</t>
+  </si>
+  <si>
+    <t>[-0.24583376944065094]</t>
+  </si>
+  <si>
+    <t>[-0.24369889497756958]</t>
+  </si>
+  <si>
+    <t>[-0.017470253631472588]</t>
+  </si>
+  <si>
+    <t>[-0.1718268245458603]</t>
+  </si>
+  <si>
+    <t>[-0.29366981983184814]</t>
+  </si>
+  <si>
+    <t>[-0.24399176239967346]</t>
+  </si>
+  <si>
+    <t>[-0.2989002764225006]</t>
+  </si>
+  <si>
+    <t>[0.20496714115142822]</t>
+  </si>
+  <si>
+    <t>[-0.3633088171482086]</t>
+  </si>
+  <si>
+    <t>[0.23132836818695068]</t>
+  </si>
+  <si>
+    <t>[-0.026571089401841164]</t>
+  </si>
+  <si>
+    <t>[-0.04832642525434494]</t>
+  </si>
+  <si>
+    <t>[-0.4277555048465729]</t>
+  </si>
+  <si>
+    <t>[-0.12981900572776794]</t>
+  </si>
+  <si>
+    <t>[-0.12505222856998444]</t>
+  </si>
+  <si>
+    <t>[0.22464776039123535]</t>
+  </si>
+  <si>
+    <t>[0.29913249611854553]</t>
+  </si>
+  <si>
+    <t>[-0.1274954080581665]</t>
+  </si>
+  <si>
+    <t>[0.36315467953681946]</t>
+  </si>
+  <si>
+    <t>[0.30743688344955444]</t>
+  </si>
+  <si>
+    <t>[0.15647034347057343]</t>
+  </si>
+  <si>
+    <t>[0.26192834973335266]</t>
+  </si>
+  <si>
+    <t>[-0.006065825931727886]</t>
+  </si>
+  <si>
+    <t>[-0.2826467752456665]</t>
+  </si>
+  <si>
+    <t>[-0.14180855453014374]</t>
+  </si>
+  <si>
+    <t>[0.15791316330432892]</t>
+  </si>
+  <si>
+    <t>[0.050132621079683304]</t>
+  </si>
+  <si>
+    <t>[-0.26106804609298706]</t>
+  </si>
+  <si>
+    <t>[-0.3695846199989319]</t>
+  </si>
+  <si>
+    <t>[0.5152020454406738]</t>
+  </si>
+  <si>
+    <t>[0.49582111835479736]</t>
+  </si>
+  <si>
+    <t>[0.11704594641923904]</t>
+  </si>
+  <si>
+    <t>[0.20594806969165802]</t>
+  </si>
+  <si>
+    <t>[0.20578214526176453]</t>
+  </si>
+  <si>
+    <t>[0.4066488444805145]</t>
+  </si>
+  <si>
+    <t>[0.108110211789608]</t>
+  </si>
+  <si>
+    <t>[-0.39279186725616455]</t>
+  </si>
+  <si>
+    <t>[0.30765223503112793]</t>
+  </si>
+  <si>
+    <t>[-0.47001883387565613]</t>
+  </si>
+  <si>
+    <t>[0.022915072739124298]</t>
+  </si>
+  <si>
+    <t>[-0.6017814874649048]</t>
+  </si>
+  <si>
+    <t>[0.1920178085565567]</t>
+  </si>
+  <si>
+    <t>[-0.3210430443286896]</t>
+  </si>
+  <si>
+    <t>[-0.2869512736797333]</t>
+  </si>
+  <si>
+    <t>[-0.45803460478782654]</t>
+  </si>
+  <si>
+    <t>[0.10429473221302032]</t>
+  </si>
+  <si>
+    <t>[-0.4119513928890228]</t>
+  </si>
+  <si>
+    <t>[0.3504081964492798]</t>
+  </si>
+  <si>
+    <t>[0.021490732207894325]</t>
+  </si>
+  <si>
+    <t>[-0.12482418864965439]</t>
+  </si>
+  <si>
+    <t>[-0.22608806192874908]</t>
+  </si>
+  <si>
+    <t>[-0.0893213301897049]</t>
+  </si>
+  <si>
+    <t>[-0.4574985206127167]</t>
+  </si>
+  <si>
+    <t>[-0.32670071721076965]</t>
+  </si>
+  <si>
+    <t>[0.2930273413658142]</t>
+  </si>
+  <si>
+    <t>[0.2892070412635803]</t>
+  </si>
+  <si>
+    <t>[-0.09212545305490494]</t>
+  </si>
+  <si>
+    <t>[0.13460195064544678]</t>
+  </si>
+  <si>
+    <t>[0.24714680016040802]</t>
+  </si>
+  <si>
+    <t>[0.2984806299209595]</t>
+  </si>
+  <si>
+    <t>[-0.30599305033683777]</t>
+  </si>
+  <si>
+    <t>[-0.16017720103263855]</t>
+  </si>
+  <si>
+    <t>[0.29435497522354126]</t>
+  </si>
+  <si>
+    <t>[0.13766753673553467]</t>
+  </si>
+  <si>
+    <t>[-0.040609825402498245]</t>
+  </si>
+  <si>
+    <t>[-0.31387659907341003]</t>
+  </si>
+  <si>
+    <t>[0.022804314270615578]</t>
+  </si>
+  <si>
+    <t>[-0.10205962508916855]</t>
+  </si>
+  <si>
+    <t>[-0.5147342085838318]</t>
+  </si>
+  <si>
+    <t>[0.27488794922828674]</t>
+  </si>
+  <si>
+    <t>[0.2297295182943344]</t>
+  </si>
+  <si>
+    <t>[-0.21150803565979004]</t>
+  </si>
+  <si>
+    <t>[-0.11424004286527634]</t>
+  </si>
+  <si>
+    <t>[-0.15972557663917542]</t>
+  </si>
+  <si>
+    <t>[0.07217078655958176]</t>
+  </si>
+  <si>
+    <t>[0.0029759316239506006]</t>
+  </si>
+  <si>
+    <t>[-0.08545011281967163]</t>
+  </si>
+  <si>
+    <t>[-0.23206408321857452]</t>
+  </si>
+  <si>
+    <t>[-0.46702322363853455]</t>
+  </si>
+  <si>
+    <t>[-0.1331818699836731]</t>
+  </si>
+  <si>
+    <t>[-0.5518385767936707]</t>
+  </si>
+  <si>
+    <t>[-0.13448141515254974]</t>
+  </si>
+  <si>
+    <t>[0.01900438219308853]</t>
+  </si>
+  <si>
+    <t>[0.24575845897197723]</t>
+  </si>
+  <si>
+    <t>[-0.21022899448871613]</t>
+  </si>
+  <si>
+    <t>[0.020091911777853966]</t>
+  </si>
+  <si>
+    <t>[0.1981971114873886]</t>
+  </si>
+  <si>
+    <t>[-0.47813162207603455]</t>
+  </si>
+  <si>
+    <t>[-0.10107748210430145]</t>
+  </si>
+  <si>
+    <t>[-0.08777789026498795]</t>
+  </si>
+  <si>
+    <t>[0.03751090541481972]</t>
+  </si>
+  <si>
+    <t>[0.2760835587978363]</t>
+  </si>
+  <si>
+    <t>[-0.13163809478282928]</t>
+  </si>
+  <si>
+    <t>[-0.4516112804412842]</t>
+  </si>
+  <si>
+    <t>[-0.3799552917480469]</t>
+  </si>
+  <si>
+    <t>[-0.12662561237812042]</t>
+  </si>
+  <si>
+    <t>[-0.2677086293697357]</t>
+  </si>
+  <si>
+    <t>[-0.15519246459007263]</t>
+  </si>
+  <si>
+    <t>[0.2863650321960449]</t>
+  </si>
+  <si>
+    <t>[0.4003453254699707]</t>
+  </si>
+  <si>
+    <t>[0.2436451017856598]</t>
+  </si>
+  <si>
+    <t>[-0.19684569537639618]</t>
+  </si>
+  <si>
+    <t>[0.00022576488845515996]</t>
+  </si>
+  <si>
+    <t>[0.3343569338321686]</t>
+  </si>
+  <si>
+    <t>[0.2838810682296753]</t>
+  </si>
+  <si>
+    <t>[0.3305441439151764]</t>
+  </si>
+  <si>
+    <t>[0.32880693674087524]</t>
+  </si>
+  <si>
+    <t>[-0.06296899914741516]</t>
+  </si>
+  <si>
+    <t>[-0.06100386753678322]</t>
+  </si>
+  <si>
+    <t>[0.21137754619121552]</t>
+  </si>
+  <si>
+    <t>[0.3235794007778168]</t>
+  </si>
+  <si>
+    <t>[-0.4583593010902405]</t>
+  </si>
+  <si>
+    <t>[0.21791116893291473]</t>
+  </si>
+  <si>
+    <t>[0.2587413787841797]</t>
+  </si>
+  <si>
+    <t>[0.5329098105430603]</t>
+  </si>
+  <si>
+    <t>[-0.09287314862012863]</t>
+  </si>
+  <si>
+    <t>[-0.3071887791156769]</t>
+  </si>
+  <si>
+    <t>[0.02506416290998459]</t>
+  </si>
+  <si>
+    <t>[-0.49958619475364685]</t>
+  </si>
+  <si>
+    <t>[0.35739561915397644]</t>
+  </si>
+  <si>
+    <t>[0.26842331886291504]</t>
+  </si>
+  <si>
+    <t>[0.10747470706701279]</t>
+  </si>
+  <si>
+    <t>[0.21161673963069916]</t>
+  </si>
+  <si>
+    <t>[-0.05809897184371948]</t>
+  </si>
+  <si>
+    <t>[-0.29319778084754944]</t>
+  </si>
+  <si>
+    <t>[0.3427654206752777]</t>
+  </si>
+  <si>
+    <t>[-0.0576968714594841]</t>
+  </si>
+  <si>
+    <t>[0.4116488993167877]</t>
+  </si>
+  <si>
+    <t>[0.1857171356678009]</t>
+  </si>
+  <si>
+    <t>[0.10932471603155136]</t>
+  </si>
+  <si>
+    <t>[0.35811614990234375]</t>
+  </si>
+  <si>
+    <t>[-0.3015601933002472]</t>
+  </si>
+  <si>
+    <t>[-0.3209405839443207]</t>
+  </si>
+  <si>
+    <t>[0.4351913630962372]</t>
+  </si>
+  <si>
+    <t>[-0.09753058850765228]</t>
+  </si>
+  <si>
+    <t>[-0.3635920584201813]</t>
+  </si>
+  <si>
+    <t>[0.015997424721717834]</t>
+  </si>
+  <si>
+    <t>[0.05375948175787926]</t>
+  </si>
+  <si>
+    <t>[-0.16527897119522095]</t>
+  </si>
+  <si>
+    <t>[0.32797113060951233]</t>
+  </si>
+  <si>
+    <t>[-0.2748751640319824]</t>
+  </si>
+  <si>
+    <t>[0.500954270362854]</t>
+  </si>
+  <si>
+    <t>[-0.585848867893219]</t>
+  </si>
+  <si>
+    <t>[0.3062025308609009]</t>
+  </si>
+  <si>
+    <t>[0.2575191557407379]</t>
+  </si>
+  <si>
+    <t>[-0.07917582988739014]</t>
+  </si>
+  <si>
+    <t>[0.3747093975543976]</t>
+  </si>
+  <si>
+    <t>[-0.32101601362228394]</t>
+  </si>
+  <si>
+    <t>[-0.3204578757286072]</t>
+  </si>
+  <si>
+    <t>[0.07641902565956116]</t>
+  </si>
+  <si>
+    <t>[-0.3516342043876648]</t>
+  </si>
+  <si>
+    <t>[0.40612098574638367]</t>
+  </si>
+  <si>
+    <t>[0.19714237749576569]</t>
+  </si>
+  <si>
+    <t>[-0.2263934165239334]</t>
+  </si>
+  <si>
+    <t>[-0.25569379329681396]</t>
+  </si>
+  <si>
+    <t>[-0.06672076135873795]</t>
+  </si>
+  <si>
+    <t>[-0.0850261002779007]</t>
+  </si>
+  <si>
+    <t>[-0.07907738536596298]</t>
+  </si>
+  <si>
+    <t>[0.37614452838897705]</t>
+  </si>
+  <si>
+    <t>[0.4036615788936615]</t>
+  </si>
+  <si>
+    <t>[-0.39320212602615356]</t>
+  </si>
+  <si>
+    <t>[0.139114648103714]</t>
+  </si>
+  <si>
+    <t>[0.25573617219924927]</t>
+  </si>
+  <si>
+    <t>[-0.2227325588464737]</t>
+  </si>
+  <si>
+    <t>[-0.15899758040905]</t>
+  </si>
+  <si>
+    <t>[0.014011593535542488]</t>
+  </si>
+  <si>
+    <t>[-0.3120330274105072]</t>
+  </si>
+  <si>
+    <t>[-0.2542693614959717]</t>
+  </si>
+  <si>
+    <t>[0.010583113878965378]</t>
+  </si>
+  <si>
+    <t>[0.2237188071012497]</t>
+  </si>
+  <si>
+    <t>[-0.6178725957870483]</t>
+  </si>
+  <si>
+    <t>[-0.2587560713291168]</t>
+  </si>
+  <si>
+    <t>[-0.5332202315330505]</t>
+  </si>
+  <si>
+    <t>[0.3187693953514099]</t>
+  </si>
+  <si>
+    <t>[-0.36872097849845886]</t>
+  </si>
+  <si>
+    <t>[0.10355240851640701]</t>
+  </si>
+  <si>
+    <t>[0.14724712073802948]</t>
+  </si>
+  <si>
+    <t>[-0.36605343222618103]</t>
+  </si>
+  <si>
+    <t>[-0.346621036529541]</t>
+  </si>
+  <si>
+    <t>[-0.34517741203308105]</t>
+  </si>
+  <si>
+    <t>[0.05268248915672302]</t>
+  </si>
+  <si>
+    <t>[-0.10150712728500366]</t>
+  </si>
+  <si>
+    <t>[0.362773060798645]</t>
+  </si>
+  <si>
+    <t>[-0.33863377571105957]</t>
+  </si>
+  <si>
+    <t>[-0.43195345997810364]</t>
+  </si>
+  <si>
+    <t>[-0.06384088844060898]</t>
+  </si>
+  <si>
+    <t>[0.1664648950099945]</t>
+  </si>
+  <si>
+    <t>[-0.05097438767552376]</t>
+  </si>
+  <si>
+    <t>[0.4337230920791626]</t>
+  </si>
+  <si>
+    <t>[-0.33292487263679504]</t>
+  </si>
+  <si>
+    <t>[-0.3959677815437317]</t>
+  </si>
+  <si>
+    <t>[0.10656195133924484]</t>
+  </si>
+  <si>
+    <t>[0.16023895144462585]</t>
+  </si>
+  <si>
+    <t>[-0.31936317682266235]</t>
+  </si>
+  <si>
+    <t>[-0.16364601254463196]</t>
+  </si>
+  <si>
+    <t>[-0.3242429196834564]</t>
+  </si>
+  <si>
+    <t>[0.2505008578300476]</t>
+  </si>
+  <si>
+    <t>[-0.19261471927165985]</t>
+  </si>
+  <si>
+    <t>[0.4041646718978882]</t>
+  </si>
+  <si>
+    <t>[-0.19449001550674438]</t>
+  </si>
+  <si>
+    <t>[0.26596692204475403]</t>
+  </si>
+  <si>
+    <t>[-0.508450984954834]</t>
+  </si>
+  <si>
+    <t>[0.5342535972595215]</t>
+  </si>
+  <si>
+    <t>[0.2582906484603882]</t>
+  </si>
+  <si>
+    <t>[0.15785345435142517]</t>
+  </si>
+  <si>
+    <t>[-0.42180052399635315]</t>
+  </si>
+  <si>
+    <t>[0.1538691520690918]</t>
+  </si>
+  <si>
+    <t>[-0.013841329142451286]</t>
+  </si>
+  <si>
+    <t>[-0.20228953659534454]</t>
+  </si>
+  <si>
+    <t>[-0.306586891412735]</t>
+  </si>
+  <si>
+    <t>[0.09757614880800247]</t>
+  </si>
+  <si>
+    <t>[0.21501927077770233]</t>
+  </si>
+  <si>
+    <t>[0.28127995133399963]</t>
+  </si>
+  <si>
+    <t>[0.2689267098903656]</t>
+  </si>
+  <si>
+    <t>[0.06209089979529381]</t>
+  </si>
+  <si>
+    <t>[0.11825430393218994]</t>
+  </si>
+  <si>
+    <t>[-0.23143444955348969]</t>
+  </si>
+  <si>
+    <t>[-0.37973514199256897]</t>
+  </si>
+  <si>
+    <t>[0.24851495027542114]</t>
+  </si>
+  <si>
+    <t>[0.09949406236410141]</t>
+  </si>
+  <si>
+    <t>[0.31573808193206787]</t>
+  </si>
+  <si>
+    <t>[-0.3109525442123413]</t>
+  </si>
+  <si>
+    <t>[-0.2800673842430115]</t>
+  </si>
+  <si>
+    <t>[-0.35296887159347534]</t>
+  </si>
+  <si>
+    <t>[0.4933083951473236]</t>
+  </si>
+  <si>
+    <t>[-0.43892595171928406]</t>
+  </si>
+  <si>
+    <t>[0.11054980754852295]</t>
+  </si>
+  <si>
+    <t>[0.34007447957992554]</t>
+  </si>
+  <si>
+    <t>[0.2873823046684265]</t>
+  </si>
+  <si>
+    <t>[0.07140427827835083]</t>
+  </si>
+  <si>
+    <t>[0.16849619150161743]</t>
+  </si>
+  <si>
+    <t>[0.16654987633228302]</t>
+  </si>
+  <si>
+    <t>[0.06650315225124359]</t>
+  </si>
+  <si>
+    <t>[-0.3862494230270386]</t>
+  </si>
+  <si>
+    <t>[-0.021406706422567368]</t>
+  </si>
+  <si>
+    <t>[-0.15709619224071503]</t>
+  </si>
+  <si>
+    <t>[0.2743140161037445]</t>
+  </si>
+  <si>
+    <t>[-0.17772510647773743]</t>
+  </si>
+  <si>
+    <t>[0.5945538878440857]</t>
+  </si>
+  <si>
+    <t>[-0.42161643505096436]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -811,772 +811,772 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[-0.1921028047800064]</t>
-  </si>
-  <si>
-    <t>[-0.03267959505319595]</t>
-  </si>
-  <si>
-    <t>[-0.08925928920507431]</t>
-  </si>
-  <si>
-    <t>[-0.023169703781604767]</t>
-  </si>
-  <si>
-    <t>[-0.17234857380390167]</t>
-  </si>
-  <si>
-    <t>[-0.2517890930175781]</t>
-  </si>
-  <si>
-    <t>[0.11760810017585754]</t>
-  </si>
-  <si>
-    <t>[-0.19747911393642426]</t>
-  </si>
-  <si>
-    <t>[-0.24055707454681396]</t>
-  </si>
-  <si>
-    <t>[0.0409463495016098]</t>
-  </si>
-  <si>
-    <t>[0.3257998824119568]</t>
-  </si>
-  <si>
-    <t>[0.24164451658725739]</t>
-  </si>
-  <si>
-    <t>[-0.0701097697019577]</t>
-  </si>
-  <si>
-    <t>[0.20795683562755585]</t>
-  </si>
-  <si>
-    <t>[-0.22209852933883667]</t>
-  </si>
-  <si>
-    <t>[-0.39759376645088196]</t>
-  </si>
-  <si>
-    <t>[0.1901792287826538]</t>
-  </si>
-  <si>
-    <t>[-0.3501175343990326]</t>
-  </si>
-  <si>
-    <t>[-0.5710617899894714]</t>
-  </si>
-  <si>
-    <t>[0.2134121209383011]</t>
-  </si>
-  <si>
-    <t>[-0.20832230150699615]</t>
-  </si>
-  <si>
-    <t>[-0.0033514227252453566]</t>
-  </si>
-  <si>
-    <t>[0.15347634255886078]</t>
-  </si>
-  <si>
-    <t>[-0.19310806691646576]</t>
-  </si>
-  <si>
-    <t>[0.23633234202861786]</t>
-  </si>
-  <si>
-    <t>[0.021348990499973297]</t>
-  </si>
-  <si>
-    <t>[0.0595615990459919]</t>
-  </si>
-  <si>
-    <t>[-0.08193416893482208]</t>
-  </si>
-  <si>
-    <t>[0.33983081579208374]</t>
-  </si>
-  <si>
-    <t>[-0.0589497871696949]</t>
-  </si>
-  <si>
-    <t>[0.2987865209579468]</t>
-  </si>
-  <si>
-    <t>[-0.12707582116127014]</t>
-  </si>
-  <si>
-    <t>[0.28652721643447876]</t>
-  </si>
-  <si>
-    <t>[0.21902327239513397]</t>
-  </si>
-  <si>
-    <t>[0.05178922042250633]</t>
-  </si>
-  <si>
-    <t>[0.0144853126257658]</t>
-  </si>
-  <si>
-    <t>[-0.2649654746055603]</t>
-  </si>
-  <si>
-    <t>[0.045766595751047134]</t>
-  </si>
-  <si>
-    <t>[0.046174850314855576]</t>
-  </si>
-  <si>
-    <t>[-0.17537182569503784]</t>
-  </si>
-  <si>
-    <t>[0.04908983036875725]</t>
-  </si>
-  <si>
-    <t>[-0.17126411199569702]</t>
-  </si>
-  <si>
-    <t>[-0.07125676423311234]</t>
-  </si>
-  <si>
-    <t>[0.2834867835044861]</t>
-  </si>
-  <si>
-    <t>[-0.2878659963607788]</t>
-  </si>
-  <si>
-    <t>[0.13384364545345306]</t>
-  </si>
-  <si>
-    <t>[0.43884122371673584]</t>
-  </si>
-  <si>
-    <t>[-0.1074458509683609]</t>
-  </si>
-  <si>
-    <t>[-0.25992387533187866]</t>
-  </si>
-  <si>
-    <t>[-0.2104453593492508]</t>
-  </si>
-  <si>
-    <t>[0.047360774129629135]</t>
-  </si>
-  <si>
-    <t>[0.15817831456661224]</t>
-  </si>
-  <si>
-    <t>[-0.08530482649803162]</t>
-  </si>
-  <si>
-    <t>[0.04418213665485382]</t>
-  </si>
-  <si>
-    <t>[-0.002679146360605955]</t>
-  </si>
-  <si>
-    <t>[0.2750966250896454]</t>
-  </si>
-  <si>
-    <t>[-0.32165229320526123]</t>
-  </si>
-  <si>
-    <t>[-0.008085442706942558]</t>
-  </si>
-  <si>
-    <t>[-0.45373061299324036]</t>
-  </si>
-  <si>
-    <t>[0.3443712890148163]</t>
-  </si>
-  <si>
-    <t>[-0.25209492444992065]</t>
-  </si>
-  <si>
-    <t>[0.3080722391605377]</t>
-  </si>
-  <si>
-    <t>[-0.4041135013103485]</t>
-  </si>
-  <si>
-    <t>[-0.3483143448829651]</t>
-  </si>
-  <si>
-    <t>[-0.015817902982234955]</t>
-  </si>
-  <si>
-    <t>[0.22032229602336884]</t>
-  </si>
-  <si>
-    <t>[0.21429646015167236]</t>
-  </si>
-  <si>
-    <t>[0.2717406451702118]</t>
-  </si>
-  <si>
-    <t>[-0.09860233217477798]</t>
-  </si>
-  <si>
-    <t>[-0.3920527696609497]</t>
-  </si>
-  <si>
-    <t>[-0.07012917101383209]</t>
-  </si>
-  <si>
-    <t>[0.13997642695903778]</t>
-  </si>
-  <si>
-    <t>[0.19644585251808167]</t>
-  </si>
-  <si>
-    <t>[0.3643394410610199]</t>
-  </si>
-  <si>
-    <t>[-0.3238314092159271]</t>
-  </si>
-  <si>
-    <t>[-0.12317843735218048]</t>
-  </si>
-  <si>
-    <t>[-0.09811855852603912]</t>
-  </si>
-  <si>
-    <t>[0.205807626247406]</t>
-  </si>
-  <si>
-    <t>[0.11100581288337708]</t>
-  </si>
-  <si>
-    <t>[0.3376551568508148]</t>
-  </si>
-  <si>
-    <t>[0.008859093300998211]</t>
-  </si>
-  <si>
-    <t>[-0.30136096477508545]</t>
-  </si>
-  <si>
-    <t>[0.17423273622989655]</t>
-  </si>
-  <si>
-    <t>[-0.10940011590719223]</t>
-  </si>
-  <si>
-    <t>[-0.10014112293720245]</t>
-  </si>
-  <si>
-    <t>[0.20523840188980103]</t>
-  </si>
-  <si>
-    <t>[-0.2798808515071869]</t>
-  </si>
-  <si>
-    <t>[-0.22331610321998596]</t>
-  </si>
-  <si>
-    <t>[-0.5126668810844421]</t>
-  </si>
-  <si>
-    <t>[0.23201413452625275]</t>
-  </si>
-  <si>
-    <t>[-0.5772038698196411]</t>
-  </si>
-  <si>
-    <t>[0.09581951051950455]</t>
-  </si>
-  <si>
-    <t>[-0.20910300314426422]</t>
-  </si>
-  <si>
-    <t>[0.052332665771245956]</t>
-  </si>
-  <si>
-    <t>[-0.18809480965137482]</t>
-  </si>
-  <si>
-    <t>[0.13283593952655792]</t>
-  </si>
-  <si>
-    <t>[-0.06977514177560806]</t>
-  </si>
-  <si>
-    <t>[-0.1308838427066803]</t>
-  </si>
-  <si>
-    <t>[-0.4605341851711273]</t>
-  </si>
-  <si>
-    <t>[-0.230381578207016]</t>
-  </si>
-  <si>
-    <t>[-0.0982731282711029]</t>
-  </si>
-  <si>
-    <t>[-0.040572747588157654]</t>
-  </si>
-  <si>
-    <t>[-0.06226225197315216]</t>
-  </si>
-  <si>
-    <t>[-0.21044586598873138]</t>
-  </si>
-  <si>
-    <t>[0.0366646908223629]</t>
-  </si>
-  <si>
-    <t>[-0.19324718415737152]</t>
-  </si>
-  <si>
-    <t>[0.1646922081708908]</t>
-  </si>
-  <si>
-    <t>[0.0592334046959877]</t>
-  </si>
-  <si>
-    <t>[0.0939720869064331]</t>
-  </si>
-  <si>
-    <t>[0.1486075222492218]</t>
-  </si>
-  <si>
-    <t>[-0.2894558906555176]</t>
-  </si>
-  <si>
-    <t>[0.09745682775974274]</t>
-  </si>
-  <si>
-    <t>[-0.10090921074151993]</t>
-  </si>
-  <si>
-    <t>[0.2048388123512268]</t>
-  </si>
-  <si>
-    <t>[0.13488920032978058]</t>
-  </si>
-  <si>
-    <t>[0.11239105463027954]</t>
-  </si>
-  <si>
-    <t>[0.07500720769166946]</t>
-  </si>
-  <si>
-    <t>[-0.09720273315906525]</t>
-  </si>
-  <si>
-    <t>[-0.3802517056465149]</t>
-  </si>
-  <si>
-    <t>[-0.032533396035432816]</t>
-  </si>
-  <si>
-    <t>[0.2037598341703415]</t>
-  </si>
-  <si>
-    <t>[-0.11654708534479141]</t>
-  </si>
-  <si>
-    <t>[0.00039633066626265645]</t>
-  </si>
-  <si>
-    <t>[-0.2910512685775757]</t>
-  </si>
-  <si>
-    <t>[0.1436852216720581]</t>
-  </si>
-  <si>
-    <t>[-0.22931316494941711]</t>
-  </si>
-  <si>
-    <t>[-0.02942843735218048]</t>
-  </si>
-  <si>
-    <t>[0.33296823501586914]</t>
-  </si>
-  <si>
-    <t>[0.006118481978774071]</t>
-  </si>
-  <si>
-    <t>[0.0036137448623776436]</t>
-  </si>
-  <si>
-    <t>[0.24196657538414001]</t>
-  </si>
-  <si>
-    <t>[0.19154860079288483]</t>
-  </si>
-  <si>
-    <t>[0.2754966914653778]</t>
-  </si>
-  <si>
-    <t>[-0.013704556040465832]</t>
-  </si>
-  <si>
-    <t>[-0.04936186969280243]</t>
-  </si>
-  <si>
-    <t>[0.14376889169216156]</t>
-  </si>
-  <si>
-    <t>[0.18241114914417267]</t>
-  </si>
-  <si>
-    <t>[-0.29444506764411926]</t>
-  </si>
-  <si>
-    <t>[-0.03477758169174194]</t>
-  </si>
-  <si>
-    <t>[0.23836614191532135]</t>
-  </si>
-  <si>
-    <t>[-0.3098745048046112]</t>
-  </si>
-  <si>
-    <t>[-0.18801619112491608]</t>
-  </si>
-  <si>
-    <t>[0.2930860221385956]</t>
-  </si>
-  <si>
-    <t>[-0.07276367396116257]</t>
-  </si>
-  <si>
-    <t>[-0.008990258909761906]</t>
-  </si>
-  <si>
-    <t>[-0.12901818752288818]</t>
-  </si>
-  <si>
-    <t>[-0.121006079018116]</t>
-  </si>
-  <si>
-    <t>[0.18845954537391663]</t>
-  </si>
-  <si>
-    <t>[-0.050678104162216187]</t>
-  </si>
-  <si>
-    <t>[-0.0861324891448021]</t>
-  </si>
-  <si>
-    <t>[-0.040508825331926346]</t>
-  </si>
-  <si>
-    <t>[-0.15749061107635498]</t>
-  </si>
-  <si>
-    <t>[-0.018082665279507637]</t>
-  </si>
-  <si>
-    <t>[0.47871607542037964]</t>
-  </si>
-  <si>
-    <t>[-0.48952120542526245]</t>
-  </si>
-  <si>
-    <t>[0.006027868017554283]</t>
-  </si>
-  <si>
-    <t>[-0.46444207429885864]</t>
-  </si>
-  <si>
-    <t>[0.12060302495956421]</t>
-  </si>
-  <si>
-    <t>[-0.18018631637096405]</t>
-  </si>
-  <si>
-    <t>[0.28988614678382874]</t>
-  </si>
-  <si>
-    <t>[0.12537968158721924]</t>
-  </si>
-  <si>
-    <t>[0.11466961354017258]</t>
-  </si>
-  <si>
-    <t>[-0.22416771948337555]</t>
-  </si>
-  <si>
-    <t>[0.0910288393497467]</t>
-  </si>
-  <si>
-    <t>[0.29432132840156555]</t>
-  </si>
-  <si>
-    <t>[-0.13653036952018738]</t>
-  </si>
-  <si>
-    <t>[0.029305685311555862]</t>
-  </si>
-  <si>
-    <t>[-0.07830403745174408]</t>
-  </si>
-  <si>
-    <t>[-0.5110124945640564]</t>
-  </si>
-  <si>
-    <t>[-0.07507620751857758]</t>
-  </si>
-  <si>
-    <t>[0.1189507246017456]</t>
-  </si>
-  <si>
-    <t>[-0.16239939630031586]</t>
-  </si>
-  <si>
-    <t>[0.10763014853000641]</t>
-  </si>
-  <si>
-    <t>[-0.00968534778803587]</t>
-  </si>
-  <si>
-    <t>[-0.0850539281964302]</t>
-  </si>
-  <si>
-    <t>[-0.2357010394334793]</t>
-  </si>
-  <si>
-    <t>[0.2524130642414093]</t>
-  </si>
-  <si>
-    <t>[0.23415067791938782]</t>
-  </si>
-  <si>
-    <t>[-0.08568716049194336]</t>
-  </si>
-  <si>
-    <t>[0.0424070879817009]</t>
-  </si>
-  <si>
-    <t>[0.3606782555580139]</t>
-  </si>
-  <si>
-    <t>[0.25422337651252747]</t>
-  </si>
-  <si>
-    <t>[-0.19143667817115784]</t>
-  </si>
-  <si>
-    <t>[-0.15811842679977417]</t>
-  </si>
-  <si>
-    <t>[0.2821801006793976]</t>
-  </si>
-  <si>
-    <t>[-0.3077338933944702]</t>
-  </si>
-  <si>
-    <t>[0.06652067601680756]</t>
-  </si>
-  <si>
-    <t>[0.06773258745670319]</t>
-  </si>
-  <si>
-    <t>[0.2617762088775635]</t>
-  </si>
-  <si>
-    <t>[0.24083921313285828]</t>
-  </si>
-  <si>
-    <t>[0.05049064755439758]</t>
-  </si>
-  <si>
-    <t>[0.03606463223695755]</t>
-  </si>
-  <si>
-    <t>[0.009576600044965744]</t>
-  </si>
-  <si>
-    <t>[-0.037099115550518036]</t>
-  </si>
-  <si>
-    <t>[0.2067820280790329]</t>
-  </si>
-  <si>
-    <t>[0.038100309669971466]</t>
-  </si>
-  <si>
-    <t>[0.020333996042609215]</t>
-  </si>
-  <si>
-    <t>[-0.2551116943359375]</t>
-  </si>
-  <si>
-    <t>[0.4371299743652344]</t>
-  </si>
-  <si>
-    <t>[0.12746429443359375]</t>
-  </si>
-  <si>
-    <t>[-0.3847168982028961]</t>
-  </si>
-  <si>
-    <t>[-0.41921356320381165]</t>
-  </si>
-  <si>
-    <t>[0.07684265822172165]</t>
-  </si>
-  <si>
-    <t>[0.053066615015268326]</t>
-  </si>
-  <si>
-    <t>[0.4611795246601105]</t>
-  </si>
-  <si>
-    <t>[-0.28894591331481934]</t>
-  </si>
-  <si>
-    <t>[-0.11632386595010757]</t>
-  </si>
-  <si>
-    <t>[-0.279675155878067]</t>
-  </si>
-  <si>
-    <t>[0.11060360074043274]</t>
-  </si>
-  <si>
-    <t>[-0.4307859539985657]</t>
-  </si>
-  <si>
-    <t>[-0.32037246227264404]</t>
-  </si>
-  <si>
-    <t>[0.07815637439489365]</t>
-  </si>
-  <si>
-    <t>[0.4795304536819458]</t>
-  </si>
-  <si>
-    <t>[-0.4318596124649048]</t>
-  </si>
-  <si>
-    <t>[-0.055175021290779114]</t>
-  </si>
-  <si>
-    <t>[-0.01095607690513134]</t>
-  </si>
-  <si>
-    <t>[0.433199405670166]</t>
-  </si>
-  <si>
-    <t>[-0.14349882304668427]</t>
-  </si>
-  <si>
-    <t>[0.049860529601573944]</t>
-  </si>
-  <si>
-    <t>[-0.044130321592092514]</t>
-  </si>
-  <si>
-    <t>[0.24760697782039642]</t>
-  </si>
-  <si>
-    <t>[-0.3654663562774658]</t>
-  </si>
-  <si>
-    <t>[0.5772712230682373]</t>
-  </si>
-  <si>
-    <t>[-0.5019800662994385]</t>
-  </si>
-  <si>
-    <t>[0.5059421062469482]</t>
-  </si>
-  <si>
-    <t>[-0.13725046813488007]</t>
-  </si>
-  <si>
-    <t>[-8.607749623479322e-05]</t>
-  </si>
-  <si>
-    <t>[-0.02024857886135578]</t>
-  </si>
-  <si>
-    <t>[0.02213883213698864]</t>
-  </si>
-  <si>
-    <t>[0.05190972238779068]</t>
-  </si>
-  <si>
-    <t>[-0.005859082099050283]</t>
-  </si>
-  <si>
-    <t>[0.331745982170105]</t>
-  </si>
-  <si>
-    <t>[0.2473420649766922]</t>
-  </si>
-  <si>
-    <t>[0.0921817421913147]</t>
-  </si>
-  <si>
-    <t>[0.12095899879932404]</t>
-  </si>
-  <si>
-    <t>[-0.2260964810848236]</t>
-  </si>
-  <si>
-    <t>[0.07986808568239212]</t>
-  </si>
-  <si>
-    <t>[0.21297307312488556]</t>
-  </si>
-  <si>
-    <t>[0.5035534501075745]</t>
-  </si>
-  <si>
-    <t>[0.033391375094652176]</t>
-  </si>
-  <si>
-    <t>[-0.14141154289245605]</t>
-  </si>
-  <si>
-    <t>[-0.011467918753623962]</t>
-  </si>
-  <si>
-    <t>[-0.08683888614177704]</t>
-  </si>
-  <si>
-    <t>[-0.19427478313446045]</t>
-  </si>
-  <si>
-    <t>[-0.4715309143066406]</t>
-  </si>
-  <si>
-    <t>[0.021865643560886383]</t>
-  </si>
-  <si>
-    <t>[-0.017207369208335876]</t>
-  </si>
-  <si>
-    <t>[-0.237369105219841]</t>
-  </si>
-  <si>
-    <t>[-0.6009966731071472]</t>
-  </si>
-  <si>
-    <t>[0.3938349485397339]</t>
-  </si>
-  <si>
-    <t>[-0.3386420011520386]</t>
-  </si>
-  <si>
-    <t>[0.09432434290647507]</t>
-  </si>
-  <si>
-    <t>[-0.21943150460720062]</t>
-  </si>
-  <si>
-    <t>[0.08081261813640594]</t>
-  </si>
-  <si>
-    <t>[-0.1943996250629425]</t>
-  </si>
-  <si>
-    <t>[0.16332349181175232]</t>
+    <t>[-0.19213414192199707]</t>
+  </si>
+  <si>
+    <t>[-0.03268016502261162]</t>
+  </si>
+  <si>
+    <t>[-0.08930657058954239]</t>
+  </si>
+  <si>
+    <t>[-0.023104282096028328]</t>
+  </si>
+  <si>
+    <t>[-0.1723262220621109]</t>
+  </si>
+  <si>
+    <t>[-0.2518303096294403]</t>
+  </si>
+  <si>
+    <t>[0.11756836622953415]</t>
+  </si>
+  <si>
+    <t>[-0.19754403829574585]</t>
+  </si>
+  <si>
+    <t>[-0.24048076570034027]</t>
+  </si>
+  <si>
+    <t>[0.04095996916294098]</t>
+  </si>
+  <si>
+    <t>[0.32573676109313965]</t>
+  </si>
+  <si>
+    <t>[0.2416941523551941]</t>
+  </si>
+  <si>
+    <t>[-0.0701582208275795]</t>
+  </si>
+  <si>
+    <t>[0.2079738974571228]</t>
+  </si>
+  <si>
+    <t>[-0.2220243513584137]</t>
+  </si>
+  <si>
+    <t>[-0.3976455628871918]</t>
+  </si>
+  <si>
+    <t>[0.19012029469013214]</t>
+  </si>
+  <si>
+    <t>[-0.35013270378112793]</t>
+  </si>
+  <si>
+    <t>[-0.5709848403930664]</t>
+  </si>
+  <si>
+    <t>[0.21346977353096008]</t>
+  </si>
+  <si>
+    <t>[-0.20837481319904327]</t>
+  </si>
+  <si>
+    <t>[-0.003334104549139738]</t>
+  </si>
+  <si>
+    <t>[0.15342000126838684]</t>
+  </si>
+  <si>
+    <t>[-0.1930558681488037]</t>
+  </si>
+  <si>
+    <t>[0.23621073365211487]</t>
+  </si>
+  <si>
+    <t>[0.021395137533545494]</t>
+  </si>
+  <si>
+    <t>[0.05941954627633095]</t>
+  </si>
+  <si>
+    <t>[-0.08188362419605255]</t>
+  </si>
+  <si>
+    <t>[0.3397468328475952]</t>
+  </si>
+  <si>
+    <t>[-0.05892942473292351]</t>
+  </si>
+  <si>
+    <t>[0.298685759305954]</t>
+  </si>
+  <si>
+    <t>[-0.12712882459163666]</t>
+  </si>
+  <si>
+    <t>[0.2864435911178589]</t>
+  </si>
+  <si>
+    <t>[0.21897919476032257]</t>
+  </si>
+  <si>
+    <t>[0.051634907722473145]</t>
+  </si>
+  <si>
+    <t>[0.014445148408412933]</t>
+  </si>
+  <si>
+    <t>[-0.26495400071144104]</t>
+  </si>
+  <si>
+    <t>[0.0457712858915329]</t>
+  </si>
+  <si>
+    <t>[0.04610369727015495]</t>
+  </si>
+  <si>
+    <t>[-0.17534370720386505]</t>
+  </si>
+  <si>
+    <t>[0.04902396351099014]</t>
+  </si>
+  <si>
+    <t>[-0.17127738893032074]</t>
+  </si>
+  <si>
+    <t>[-0.07123109698295593]</t>
+  </si>
+  <si>
+    <t>[0.28344401717185974]</t>
+  </si>
+  <si>
+    <t>[-0.2878168821334839]</t>
+  </si>
+  <si>
+    <t>[0.13383379578590393]</t>
+  </si>
+  <si>
+    <t>[0.43876683712005615]</t>
+  </si>
+  <si>
+    <t>[-0.10740649700164795]</t>
+  </si>
+  <si>
+    <t>[-0.25992339849472046]</t>
+  </si>
+  <si>
+    <t>[-0.2104354202747345]</t>
+  </si>
+  <si>
+    <t>[0.04746130853891373]</t>
+  </si>
+  <si>
+    <t>[0.158145010471344]</t>
+  </si>
+  <si>
+    <t>[-0.08527781814336777]</t>
+  </si>
+  <si>
+    <t>[0.04419843107461929]</t>
+  </si>
+  <si>
+    <t>[-0.002690688706934452]</t>
+  </si>
+  <si>
+    <t>[0.2750522196292877]</t>
+  </si>
+  <si>
+    <t>[-0.3215051591396332]</t>
+  </si>
+  <si>
+    <t>[-0.008129628375172615]</t>
+  </si>
+  <si>
+    <t>[-0.4535752832889557]</t>
+  </si>
+  <si>
+    <t>[0.3443174362182617]</t>
+  </si>
+  <si>
+    <t>[-0.2520061731338501]</t>
+  </si>
+  <si>
+    <t>[0.3080415427684784]</t>
+  </si>
+  <si>
+    <t>[-0.4040323495864868]</t>
+  </si>
+  <si>
+    <t>[-0.34827902913093567]</t>
+  </si>
+  <si>
+    <t>[-0.015882622450590134]</t>
+  </si>
+  <si>
+    <t>[0.22028499841690063]</t>
+  </si>
+  <si>
+    <t>[0.21430127322673798]</t>
+  </si>
+  <si>
+    <t>[0.2718503475189209]</t>
+  </si>
+  <si>
+    <t>[-0.09859323501586914]</t>
+  </si>
+  <si>
+    <t>[-0.3920556604862213]</t>
+  </si>
+  <si>
+    <t>[-0.07004419714212418]</t>
+  </si>
+  <si>
+    <t>[0.13987746834754944]</t>
+  </si>
+  <si>
+    <t>[0.19625405967235565]</t>
+  </si>
+  <si>
+    <t>[0.3643141984939575]</t>
+  </si>
+  <si>
+    <t>[-0.32367292046546936]</t>
+  </si>
+  <si>
+    <t>[-0.1230703741312027]</t>
+  </si>
+  <si>
+    <t>[-0.09796294569969177]</t>
+  </si>
+  <si>
+    <t>[0.20577190816402435]</t>
+  </si>
+  <si>
+    <t>[0.11078265309333801]</t>
+  </si>
+  <si>
+    <t>[0.33756551146507263]</t>
+  </si>
+  <si>
+    <t>[0.008942295797169209]</t>
+  </si>
+  <si>
+    <t>[-0.30136626958847046]</t>
+  </si>
+  <si>
+    <t>[0.17413166165351868]</t>
+  </si>
+  <si>
+    <t>[-0.10929480195045471]</t>
+  </si>
+  <si>
+    <t>[-0.10000921040773392]</t>
+  </si>
+  <si>
+    <t>[0.2052280306816101]</t>
+  </si>
+  <si>
+    <t>[-0.2797801196575165]</t>
+  </si>
+  <si>
+    <t>[-0.22320128977298737]</t>
+  </si>
+  <si>
+    <t>[-0.5122602581977844]</t>
+  </si>
+  <si>
+    <t>[0.23186829686164856]</t>
+  </si>
+  <si>
+    <t>[-0.5767824053764343]</t>
+  </si>
+  <si>
+    <t>[0.09591912478208542]</t>
+  </si>
+  <si>
+    <t>[-0.2088729739189148]</t>
+  </si>
+  <si>
+    <t>[0.05227915570139885]</t>
+  </si>
+  <si>
+    <t>[-0.18785925209522247]</t>
+  </si>
+  <si>
+    <t>[0.1327405720949173]</t>
+  </si>
+  <si>
+    <t>[-0.06967731565237045]</t>
+  </si>
+  <si>
+    <t>[-0.13083162903785706]</t>
+  </si>
+  <si>
+    <t>[-0.4604121148586273]</t>
+  </si>
+  <si>
+    <t>[-0.23035262525081635]</t>
+  </si>
+  <si>
+    <t>[-0.09828752279281616]</t>
+  </si>
+  <si>
+    <t>[-0.040581218898296356]</t>
+  </si>
+  <si>
+    <t>[-0.06223262473940849]</t>
+  </si>
+  <si>
+    <t>[-0.21047021448612213]</t>
+  </si>
+  <si>
+    <t>[0.03679104149341583]</t>
+  </si>
+  <si>
+    <t>[-0.1932276040315628]</t>
+  </si>
+  <si>
+    <t>[0.16460560262203217]</t>
+  </si>
+  <si>
+    <t>[0.059262845665216446]</t>
+  </si>
+  <si>
+    <t>[0.09387784451246262]</t>
+  </si>
+  <si>
+    <t>[0.14862513542175293]</t>
+  </si>
+  <si>
+    <t>[-0.28932031989097595]</t>
+  </si>
+  <si>
+    <t>[0.09743010252714157]</t>
+  </si>
+  <si>
+    <t>[-0.10095714032649994]</t>
+  </si>
+  <si>
+    <t>[0.20483456552028656]</t>
+  </si>
+  <si>
+    <t>[0.13486362993717194]</t>
+  </si>
+  <si>
+    <t>[0.11241624504327774]</t>
+  </si>
+  <si>
+    <t>[0.07493159919977188]</t>
+  </si>
+  <si>
+    <t>[-0.09720304608345032]</t>
+  </si>
+  <si>
+    <t>[-0.38028958439826965]</t>
+  </si>
+  <si>
+    <t>[-0.03250246122479439]</t>
+  </si>
+  <si>
+    <t>[0.2034856677055359]</t>
+  </si>
+  <si>
+    <t>[-0.11647199839353561]</t>
+  </si>
+  <si>
+    <t>[0.00011329118569847196]</t>
+  </si>
+  <si>
+    <t>[-0.2910121977329254]</t>
+  </si>
+  <si>
+    <t>[0.14353488385677338]</t>
+  </si>
+  <si>
+    <t>[-0.22927692532539368]</t>
+  </si>
+  <si>
+    <t>[-0.029575787484645844]</t>
+  </si>
+  <si>
+    <t>[0.33294588327407837]</t>
+  </si>
+  <si>
+    <t>[0.006027157884091139]</t>
+  </si>
+  <si>
+    <t>[0.003565453691408038]</t>
+  </si>
+  <si>
+    <t>[0.2418699860572815]</t>
+  </si>
+  <si>
+    <t>[0.19154460728168488]</t>
+  </si>
+  <si>
+    <t>[0.2755146622657776]</t>
+  </si>
+  <si>
+    <t>[-0.013702940195798874]</t>
+  </si>
+  <si>
+    <t>[-0.0493890754878521]</t>
+  </si>
+  <si>
+    <t>[0.14376895129680634]</t>
+  </si>
+  <si>
+    <t>[0.18230922520160675]</t>
+  </si>
+  <si>
+    <t>[-0.2944680452346802]</t>
+  </si>
+  <si>
+    <t>[-0.03470904752612114]</t>
+  </si>
+  <si>
+    <t>[0.2383595108985901]</t>
+  </si>
+  <si>
+    <t>[-0.3098006248474121]</t>
+  </si>
+  <si>
+    <t>[-0.1880311816930771]</t>
+  </si>
+  <si>
+    <t>[0.29297584295272827]</t>
+  </si>
+  <si>
+    <t>[-0.07275762408971786]</t>
+  </si>
+  <si>
+    <t>[-0.008946755900979042]</t>
+  </si>
+  <si>
+    <t>[-0.12902791798114777]</t>
+  </si>
+  <si>
+    <t>[-0.12099055200815201]</t>
+  </si>
+  <si>
+    <t>[0.18845334649085999]</t>
+  </si>
+  <si>
+    <t>[-0.05061785504221916]</t>
+  </si>
+  <si>
+    <t>[-0.08613643795251846]</t>
+  </si>
+  <si>
+    <t>[-0.04047989845275879]</t>
+  </si>
+  <si>
+    <t>[-0.15749618411064148]</t>
+  </si>
+  <si>
+    <t>[-0.01786220073699951]</t>
+  </si>
+  <si>
+    <t>[0.47865059971809387]</t>
+  </si>
+  <si>
+    <t>[-0.4892853796482086]</t>
+  </si>
+  <si>
+    <t>[0.006012045778334141]</t>
+  </si>
+  <si>
+    <t>[-0.4643174707889557]</t>
+  </si>
+  <si>
+    <t>[0.12057027965784073]</t>
+  </si>
+  <si>
+    <t>[-0.18006138503551483]</t>
+  </si>
+  <si>
+    <t>[0.28988659381866455]</t>
+  </si>
+  <si>
+    <t>[0.12545467913150787]</t>
+  </si>
+  <si>
+    <t>[0.11474762856960297]</t>
+  </si>
+  <si>
+    <t>[-0.22409923374652863]</t>
+  </si>
+  <si>
+    <t>[0.0910230353474617]</t>
+  </si>
+  <si>
+    <t>[0.2943200170993805]</t>
+  </si>
+  <si>
+    <t>[-0.1365426927804947]</t>
+  </si>
+  <si>
+    <t>[0.029327094554901123]</t>
+  </si>
+  <si>
+    <t>[-0.07829868048429489]</t>
+  </si>
+  <si>
+    <t>[-0.5108993053436279]</t>
+  </si>
+  <si>
+    <t>[-0.07506591826677322]</t>
+  </si>
+  <si>
+    <t>[0.11887197941541672]</t>
+  </si>
+  <si>
+    <t>[-0.1624036729335785]</t>
+  </si>
+  <si>
+    <t>[0.10754498839378357]</t>
+  </si>
+  <si>
+    <t>[-0.00966512318700552]</t>
+  </si>
+  <si>
+    <t>[-0.08492661267518997]</t>
+  </si>
+  <si>
+    <t>[-0.23570244014263153]</t>
+  </si>
+  <si>
+    <t>[0.25238141417503357]</t>
+  </si>
+  <si>
+    <t>[0.23412466049194336]</t>
+  </si>
+  <si>
+    <t>[-0.08570865541696548]</t>
+  </si>
+  <si>
+    <t>[0.042390126734972]</t>
+  </si>
+  <si>
+    <t>[0.3606051504611969]</t>
+  </si>
+  <si>
+    <t>[0.2542203664779663]</t>
+  </si>
+  <si>
+    <t>[-0.19147983193397522]</t>
+  </si>
+  <si>
+    <t>[-0.15812519192695618]</t>
+  </si>
+  <si>
+    <t>[0.28193601965904236]</t>
+  </si>
+  <si>
+    <t>[-0.3076440095901489]</t>
+  </si>
+  <si>
+    <t>[0.066254161298275]</t>
+  </si>
+  <si>
+    <t>[0.0677412748336792]</t>
+  </si>
+  <si>
+    <t>[0.2616385221481323]</t>
+  </si>
+  <si>
+    <t>[0.2408725470304489]</t>
+  </si>
+  <si>
+    <t>[0.05034783110022545]</t>
+  </si>
+  <si>
+    <t>[0.03606797754764557]</t>
+  </si>
+  <si>
+    <t>[0.009633024223148823]</t>
+  </si>
+  <si>
+    <t>[-0.03722257912158966]</t>
+  </si>
+  <si>
+    <t>[0.20671117305755615]</t>
+  </si>
+  <si>
+    <t>[0.03800937533378601]</t>
+  </si>
+  <si>
+    <t>[0.020199744030833244]</t>
+  </si>
+  <si>
+    <t>[-0.25505802035331726]</t>
+  </si>
+  <si>
+    <t>[0.4369332790374756]</t>
+  </si>
+  <si>
+    <t>[0.1275363564491272]</t>
+  </si>
+  <si>
+    <t>[-0.384273886680603]</t>
+  </si>
+  <si>
+    <t>[-0.4190289080142975]</t>
+  </si>
+  <si>
+    <t>[0.07642710208892822]</t>
+  </si>
+  <si>
+    <t>[0.05298834294080734]</t>
+  </si>
+  <si>
+    <t>[0.46087491512298584]</t>
+  </si>
+  <si>
+    <t>[-0.28885185718536377]</t>
+  </si>
+  <si>
+    <t>[-0.11594003438949585]</t>
+  </si>
+  <si>
+    <t>[-0.27958565950393677]</t>
+  </si>
+  <si>
+    <t>[0.11020074039697647]</t>
+  </si>
+  <si>
+    <t>[-0.43062254786491394]</t>
+  </si>
+  <si>
+    <t>[-0.3199288547039032]</t>
+  </si>
+  <si>
+    <t>[0.07812657952308655]</t>
+  </si>
+  <si>
+    <t>[0.4791896641254425]</t>
+  </si>
+  <si>
+    <t>[-0.4317609667778015]</t>
+  </si>
+  <si>
+    <t>[-0.05547375604510307]</t>
+  </si>
+  <si>
+    <t>[-0.011037932708859444]</t>
+  </si>
+  <si>
+    <t>[0.43263769149780273]</t>
+  </si>
+  <si>
+    <t>[-0.14332854747772217]</t>
+  </si>
+  <si>
+    <t>[0.04930088669061661]</t>
+  </si>
+  <si>
+    <t>[-0.04425480589270592]</t>
+  </si>
+  <si>
+    <t>[0.2472466677427292]</t>
+  </si>
+  <si>
+    <t>[-0.36535415053367615]</t>
+  </si>
+  <si>
+    <t>[0.5769054293632507]</t>
+  </si>
+  <si>
+    <t>[-0.5018867254257202]</t>
+  </si>
+  <si>
+    <t>[0.505844235420227]</t>
+  </si>
+  <si>
+    <t>[-0.13728530704975128]</t>
+  </si>
+  <si>
+    <t>[-0.00019129030988551676]</t>
+  </si>
+  <si>
+    <t>[-0.020231492817401886]</t>
+  </si>
+  <si>
+    <t>[0.02216481603682041]</t>
+  </si>
+  <si>
+    <t>[0.051905401051044464]</t>
+  </si>
+  <si>
+    <t>[-0.005871665198355913]</t>
+  </si>
+  <si>
+    <t>[0.33172863721847534]</t>
+  </si>
+  <si>
+    <t>[0.2471998929977417]</t>
+  </si>
+  <si>
+    <t>[0.09214906394481659]</t>
+  </si>
+  <si>
+    <t>[0.12106193602085114]</t>
+  </si>
+  <si>
+    <t>[-0.22608588635921478]</t>
+  </si>
+  <si>
+    <t>[0.07997557520866394]</t>
+  </si>
+  <si>
+    <t>[0.21294979751110077]</t>
+  </si>
+  <si>
+    <t>[0.5034042000770569]</t>
+  </si>
+  <si>
+    <t>[0.033381395041942596]</t>
+  </si>
+  <si>
+    <t>[-0.14135606586933136]</t>
+  </si>
+  <si>
+    <t>[-0.011485316790640354]</t>
+  </si>
+  <si>
+    <t>[-0.0868389755487442]</t>
+  </si>
+  <si>
+    <t>[-0.19426468014717102]</t>
+  </si>
+  <si>
+    <t>[-0.47144263982772827]</t>
+  </si>
+  <si>
+    <t>[0.021858803927898407]</t>
+  </si>
+  <si>
+    <t>[-0.01716051623225212]</t>
+  </si>
+  <si>
+    <t>[-0.23735858500003815]</t>
+  </si>
+  <si>
+    <t>[-0.6007051467895508]</t>
+  </si>
+  <si>
+    <t>[0.3937455415725708]</t>
+  </si>
+  <si>
+    <t>[-0.33834195137023926]</t>
+  </si>
+  <si>
+    <t>[0.09432739019393921]</t>
+  </si>
+  <si>
+    <t>[-0.21927525103092194]</t>
+  </si>
+  <si>
+    <t>[0.08077023923397064]</t>
+  </si>
+  <si>
+    <t>[-0.19424620270729065]</t>
+  </si>
+  <si>
+    <t>[0.16330763697624207]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -1591,100 +1591,100 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[0.18645471334457397]</t>
-  </si>
-  <si>
-    <t>[1.1557283401489258]</t>
-  </si>
-  <si>
-    <t>[0.19857823848724365]</t>
-  </si>
-  <si>
-    <t>[-0.03613575920462608]</t>
-  </si>
-  <si>
-    <t>[-0.17220133543014526]</t>
-  </si>
-  <si>
-    <t>[1.0725765228271484]</t>
-  </si>
-  <si>
-    <t>[-0.15950380265712738]</t>
-  </si>
-  <si>
-    <t>[0.06903298199176788]</t>
-  </si>
-  <si>
-    <t>[0.26243627071380615]</t>
-  </si>
-  <si>
-    <t>[1.1962532997131348]</t>
-  </si>
-  <si>
-    <t>[-0.2502562701702118]</t>
-  </si>
-  <si>
-    <t>[-0.06854654103517532]</t>
-  </si>
-  <si>
-    <t>[-0.2612784504890442]</t>
-  </si>
-  <si>
-    <t>[1.2000129222869873]</t>
-  </si>
-  <si>
-    <t>[0.269522100687027]</t>
-  </si>
-  <si>
-    <t>[0.0948355421423912]</t>
-  </si>
-  <si>
-    <t>[-0.2188040018081665]</t>
-  </si>
-  <si>
-    <t>[1.1077606678009033]</t>
-  </si>
-  <si>
-    <t>[0.18330834805965424]</t>
-  </si>
-  <si>
-    <t>[-0.09147235751152039]</t>
-  </si>
-  <si>
-    <t>[-0.2397751659154892]</t>
-  </si>
-  <si>
-    <t>[1.1662333011627197]</t>
-  </si>
-  <si>
-    <t>[-0.2193838506937027]</t>
-  </si>
-  <si>
-    <t>[-0.06586769968271255]</t>
-  </si>
-  <si>
-    <t>[-0.32666924595832825]</t>
-  </si>
-  <si>
-    <t>[1.3339062929153442]</t>
-  </si>
-  <si>
-    <t>[-0.35073229670524597]</t>
-  </si>
-  <si>
-    <t>[-0.04715665802359581]</t>
-  </si>
-  <si>
-    <t>[-0.2778301537036896]</t>
-  </si>
-  <si>
-    <t>[1.2430895566940308]</t>
-  </si>
-  <si>
-    <t>[-0.2851414680480957]</t>
-  </si>
-  <si>
-    <t>[0.10316881537437439]</t>
+    <t>[0.18641377985477448]</t>
+  </si>
+  <si>
+    <t>[1.1556586027145386]</t>
+  </si>
+  <si>
+    <t>[0.1985500156879425]</t>
+  </si>
+  <si>
+    <t>[-0.03612032160162926]</t>
+  </si>
+  <si>
+    <t>[-0.17218895256519318]</t>
+  </si>
+  <si>
+    <t>[1.072554588317871]</t>
+  </si>
+  <si>
+    <t>[-0.15949389338493347]</t>
+  </si>
+  <si>
+    <t>[0.06901827454566956]</t>
+  </si>
+  <si>
+    <t>[0.2624363601207733]</t>
+  </si>
+  <si>
+    <t>[1.1959638595581055]</t>
+  </si>
+  <si>
+    <t>[-0.25025591254234314]</t>
+  </si>
+  <si>
+    <t>[-0.06854052096605301]</t>
+  </si>
+  <si>
+    <t>[-0.26127973198890686]</t>
+  </si>
+  <si>
+    <t>[1.1997480392456055]</t>
+  </si>
+  <si>
+    <t>[0.26952341198921204]</t>
+  </si>
+  <si>
+    <t>[0.09483150392770767]</t>
+  </si>
+  <si>
+    <t>[-0.21881301701068878]</t>
+  </si>
+  <si>
+    <t>[1.107667326927185]</t>
+  </si>
+  <si>
+    <t>[0.18332406878471375]</t>
+  </si>
+  <si>
+    <t>[-0.09146382659673691]</t>
+  </si>
+  <si>
+    <t>[-0.23977938294410706]</t>
+  </si>
+  <si>
+    <t>[1.1660844087600708]</t>
+  </si>
+  <si>
+    <t>[-0.21938911080360413]</t>
+  </si>
+  <si>
+    <t>[-0.06586306542158127]</t>
+  </si>
+  <si>
+    <t>[-0.3266718089580536]</t>
+  </si>
+  <si>
+    <t>[1.3332055807113647]</t>
+  </si>
+  <si>
+    <t>[-0.3507348895072937]</t>
+  </si>
+  <si>
+    <t>[-0.04716182127594948]</t>
+  </si>
+  <si>
+    <t>[-0.27782854437828064]</t>
+  </si>
+  <si>
+    <t>[1.2427699565887451]</t>
+  </si>
+  <si>
+    <t>[-0.2851397693157196]</t>
+  </si>
+  <si>
+    <t>[0.10316018760204315]</t>
   </si>
 </sst>
 </file>
